--- a/Runtime/VOSdkTyped/Source/VOSdk/GUI_Classes_SDK/ClassMapping.xlsx
+++ b/Runtime/VOSdkTyped/Source/VOSdk/GUI_Classes_SDK/ClassMapping.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\VOSdkTyped\Source\VOSdk\GUI_Classes_SDK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E434D3B1-9768-44BB-810B-9BDBCB41F63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932E0914-B4E4-4DDD-9B57-390DC143D779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4683684D-C402-4F2B-ABAA-246EFAFB1186}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{4683684D-C402-4F2B-ABAA-246EFAFB1186}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="List of classes" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -546,9 +546,6 @@
     <t>OnControlCreated, OnHandleCreated, OnHandleDestroyed</t>
   </si>
   <si>
-    <t>Many manye events</t>
-  </si>
-  <si>
     <t>OnControlCreated, RetrieveVirtualItems, CacheVirtualItems, SearchForVirtualItem</t>
   </si>
   <si>
@@ -775,6 +772,9 @@
   </si>
   <si>
     <t>Normally these events or similar events are available for all 3rd party controls as well.</t>
+  </si>
+  <si>
+    <t>Many many events</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6821692C-EB20-4B92-A7C3-887AABF60203}">
   <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
@@ -1146,217 +1146,217 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -1364,72 +1364,72 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1441,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724AA120-0C83-42E2-87CF-1698B945DC96}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,7 +1603,7 @@
         <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>170</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1631,7 +1631,7 @@
         <v>63</v>
       </c>
       <c r="G14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1785,19 +1785,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" t="s">
         <v>175</v>
-      </c>
-      <c r="D25" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
@@ -1861,31 +1861,31 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
@@ -2039,7 +2039,7 @@
         <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2058,16 +2058,16 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46" t="s">
         <v>126</v>
       </c>
       <c r="E46" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" t="s">
         <v>188</v>
-      </c>
-      <c r="G46" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2084,7 +2084,7 @@
         <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2101,7 +2101,7 @@
         <v>68</v>
       </c>
       <c r="G48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">

--- a/Runtime/VOSdkTyped/Source/VOSdk/GUI_Classes_SDK/ClassMapping.xlsx
+++ b/Runtime/VOSdkTyped/Source/VOSdk/GUI_Classes_SDK/ClassMapping.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\XSharp\DevRt\Runtime\VOSdkTyped\Source\VOSdk\GUI_Classes_SDK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932E0914-B4E4-4DDD-9B57-390DC143D779}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBE3E5D-7F52-4B5A-A58A-97976B375021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{4683684D-C402-4F2B-ABAA-246EFAFB1186}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4683684D-C402-4F2B-ABAA-246EFAFB1186}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="2" r:id="rId1"/>
     <sheet name="List of classes" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="226">
   <si>
     <t>Windows Forms Based GUI classes</t>
   </si>
@@ -243,24 +235,6 @@
     <t>VOSplitContainer</t>
   </si>
   <si>
-    <t>Interface</t>
-  </si>
-  <si>
-    <t>IVOLabel</t>
-  </si>
-  <si>
-    <t>IVOMLETextBox</t>
-  </si>
-  <si>
-    <t>IVOTextBox</t>
-  </si>
-  <si>
-    <t>IVOHotKeyTextBox</t>
-  </si>
-  <si>
-    <t>IVOButton</t>
-  </si>
-  <si>
     <t>DataWindow</t>
   </si>
   <si>
@@ -396,12 +370,6 @@
     <t>ControlType.ComboBox</t>
   </si>
   <si>
-    <t>IVOComboBox</t>
-  </si>
-  <si>
-    <t>IVOCheckBox</t>
-  </si>
-  <si>
     <t>VOComboBox</t>
   </si>
   <si>
@@ -462,36 +430,6 @@
     <t>SpinnerEdit</t>
   </si>
   <si>
-    <t>IVOPanel</t>
-  </si>
-  <si>
-    <t>IVODataGridView</t>
-  </si>
-  <si>
-    <t>IVODataListView</t>
-  </si>
-  <si>
-    <t>IVODateTimePicker</t>
-  </si>
-  <si>
-    <t>IVOImageLabel</t>
-  </si>
-  <si>
-    <t>IVOOwnerDrawnLabel</t>
-  </si>
-  <si>
-    <t>IVOGroupBox</t>
-  </si>
-  <si>
-    <t>IVOHScrollBar</t>
-  </si>
-  <si>
-    <t>IVOSlider</t>
-  </si>
-  <si>
-    <t>IVOIPAddressTextBox</t>
-  </si>
-  <si>
     <t>Working</t>
   </si>
   <si>
@@ -516,9 +454,6 @@
     <t>Windows classes</t>
   </si>
   <si>
-    <t>IVOControl</t>
-  </si>
-  <si>
     <t>DataColumn</t>
   </si>
   <si>
@@ -574,12 +509,6 @@
   </si>
   <si>
     <t>ListViewGroup</t>
-  </si>
-  <si>
-    <t>VOColumnHeader</t>
-  </si>
-  <si>
-    <t>VOListViewItem</t>
   </si>
   <si>
     <t>ListViewItemComparer</t>
@@ -1146,217 +1075,217 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -1364,72 +1293,72 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -1439,325 +1368,271 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724AA120-0C83-42E2-87CF-1698B945DC96}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>4</v>
+        <v>134</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" t="s">
         <v>118</v>
       </c>
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
         <v>61</v>
       </c>
       <c r="C12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
         <v>143</v>
       </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" t="s">
         <v>63</v>
       </c>
-      <c r="G14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" t="s">
         <v>36</v>
       </c>
-      <c r="G19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>149</v>
-      </c>
-      <c r="D20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -1765,72 +1640,57 @@
       <c r="C23" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
-      </c>
-      <c r="D25" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="F25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -1838,16 +1698,13 @@
       <c r="C28" t="s">
         <v>34</v>
       </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1855,42 +1712,33 @@
       <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="C33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B34" t="s">
         <v>65</v>
@@ -1898,35 +1746,29 @@
       <c r="C34" t="s">
         <v>66</v>
       </c>
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B37" t="s">
         <v>57</v>
@@ -1934,27 +1776,21 @@
       <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="D37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -1962,30 +1798,24 @@
       <c r="C39" t="s">
         <v>19</v>
       </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="B40" t="s">
         <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
         <v>59</v>
@@ -1993,27 +1823,21 @@
       <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="D41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -2021,30 +1845,24 @@
       <c r="C43" t="s">
         <v>44</v>
       </c>
-      <c r="D43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B44" t="s">
         <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -2052,27 +1870,24 @@
       <c r="C45" t="s">
         <v>44</v>
       </c>
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="F46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -2080,16 +1895,13 @@
       <c r="C47" t="s">
         <v>22</v>
       </c>
-      <c r="D47" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B48" t="s">
         <v>67</v>
@@ -2097,16 +1909,13 @@
       <c r="C48" t="s">
         <v>68</v>
       </c>
-      <c r="D48" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
         <v>45</v>
@@ -2114,13 +1923,10 @@
       <c r="C49" t="s">
         <v>46</v>
       </c>
-      <c r="D49" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B50" t="s">
         <v>47</v>
@@ -2128,13 +1934,10 @@
       <c r="C50" t="s">
         <v>48</v>
       </c>
-      <c r="D50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
         <v>49</v>
@@ -2142,21 +1945,18 @@
       <c r="C51" t="s">
         <v>50</v>
       </c>
-      <c r="D51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
@@ -2164,13 +1964,10 @@
       <c r="C53" t="s">
         <v>56</v>
       </c>
-      <c r="D53" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
         <v>51</v>
@@ -2178,13 +1975,10 @@
       <c r="C54" t="s">
         <v>52</v>
       </c>
-      <c r="D54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
         <v>33</v>
@@ -2192,13 +1986,10 @@
       <c r="C55" t="s">
         <v>38</v>
       </c>
-      <c r="D55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B56" t="s">
         <v>43</v>
@@ -2206,13 +1997,10 @@
       <c r="C56" t="s">
         <v>44</v>
       </c>
-      <c r="D56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B57" t="s">
         <v>43</v>
@@ -2220,13 +2008,10 @@
       <c r="C57" t="s">
         <v>44</v>
       </c>
-      <c r="D57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
@@ -2234,111 +2019,108 @@
       <c r="C58" t="s">
         <v>39</v>
       </c>
-      <c r="D58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
         <v>75</v>
       </c>
-      <c r="D75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>77</v>
       </c>
-      <c r="D76" t="s">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="D77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>82</v>
-      </c>
-      <c r="D78" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>85</v>
-      </c>
-      <c r="D80" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>90</v>
-      </c>
-      <c r="D81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>89</v>
-      </c>
-      <c r="D82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1</v>
       </c>
-      <c r="D83" t="s">
-        <v>88</v>
+      <c r="C83" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E58">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D58">
     <sortCondition ref="A5:A58"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
